--- a/viagem/doc/Simulação.xlsx
+++ b/viagem/doc/Simulação.xlsx
@@ -1,22 +1,290 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="usuário" sheetId="4" r:id="rId4"/>
+    <sheet name="cadastros e movimento" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Representa a empresa, serve para criar o conceito de multiempresa no sistema, segregando as informações por este domínio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Classifica a conta (ou empresa) conforme sua atividade perante outras empresas dentro do sistema
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Atrela o usuário ao contexto de informações que ele pode visualizar dentro do sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuários com privilégio de manter as informações da conta e gerenciar usuários.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cadastro dos estabelecimentos da empresa. Fica visível para qualquer empresa cadastrar uma viagem. Quando uma viagem é cadastrada e referencia o estabelecimento, logo a empresa dona deste estabelecimento poderá visualizar as viagens.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Representa um serviço a ser realizado sob a responsabilidade de um ou mais transportadores e sob a gestão da empresa contratante (tomador). Fazendo uma analogia, seria a solicitação de transporte.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui é declarado quem está envolvido no serviço e o respectivo papel (quem é o tomador, quais transportadores). Quem estiver nesta relação poderá visualizar o embarque e todas as viagens.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Detalha os itens que serão transportados. Para situações de encomendas, distribuição de alimentos, é comum ter mais de um item e mais de uma entrega na mesma carga.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Empresa pode manter um cadastro de motoristas próprio para facilitar o cadastro das viagens; empresas que possuem motorista próprio também seria interessante utilizar.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Permite indicar a ordem das operações que o veículo deve realizar ao executar o serviço de transporte.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="133">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -208,13 +476,220 @@
   </si>
   <si>
     <t>SAIDA</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
+    <t>Tindiana</t>
+  </si>
+  <si>
+    <t>rpavezzi</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>rdometerco</t>
+  </si>
+  <si>
+    <t>turim</t>
+  </si>
+  <si>
+    <t>marcelo</t>
+  </si>
+  <si>
+    <t>Coamo</t>
+  </si>
+  <si>
+    <t>luciano</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>Usuário da conta</t>
+  </si>
+  <si>
+    <t>Administrador da cota</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Perfil da conta</t>
+  </si>
+  <si>
+    <t>tindiana@xyz</t>
+  </si>
+  <si>
+    <t>coamo@xyz</t>
+  </si>
+  <si>
+    <t>joao@xyz</t>
+  </si>
+  <si>
+    <t>rpavezi@xyz</t>
+  </si>
+  <si>
+    <t>rdometerco@xyz</t>
+  </si>
+  <si>
+    <t>turim@xyz</t>
+  </si>
+  <si>
+    <t>marcelo@xyz</t>
+  </si>
+  <si>
+    <t>luciano@xyz</t>
+  </si>
+  <si>
+    <t>Tomador</t>
+  </si>
+  <si>
+    <t>Estabelecimento</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Lat/Lng</t>
+  </si>
+  <si>
+    <t>Ind. Óleo</t>
+  </si>
+  <si>
+    <t>Mamborê</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>Serviço de transporte</t>
+  </si>
+  <si>
+    <t>C. Mourão</t>
+  </si>
+  <si>
+    <t>Pgua</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>Bauru</t>
+  </si>
+  <si>
+    <t>Óleo</t>
+  </si>
+  <si>
+    <t>Assis</t>
+  </si>
+  <si>
+    <t>Gordura</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Operação do serviço de transporte</t>
+  </si>
+  <si>
+    <t>Serviço</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>Descarga</t>
+  </si>
+  <si>
+    <t>Demanda de transporte</t>
+  </si>
+  <si>
+    <t>Demanda</t>
+  </si>
+  <si>
+    <t>Veiculo</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Ponto</t>
+  </si>
+  <si>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>Paganagua</t>
+  </si>
+  <si>
+    <t>Publicação do serviço</t>
+  </si>
+  <si>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Dt refer</t>
+  </si>
+  <si>
+    <t>Encerrado</t>
+  </si>
+  <si>
+    <t>* Apesar dos cadastros pré-existentes, as informações necessárias a cada entidade serão replicadas para não ficar acopladas com o cadastro, que pode mudar.</t>
+  </si>
+  <si>
+    <t>Exemplo: as classes que possuem local como atributo, poderão referenciar um estabelecimento já cadastrado, mas manterá também as demais informações - latitude, longitude, etc..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +752,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,10 +798,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,8 +817,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,9 +917,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,6 +952,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -611,14 +1128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -631,7 +1148,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +1185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -697,7 +1214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
@@ -717,7 +1234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
@@ -737,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -757,7 +1274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1</v>
       </c>
@@ -783,14 +1300,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -805,7 +1322,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -816,7 +1333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -851,7 +1368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -883,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -918,7 +1435,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -941,7 +1458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>234231</v>
       </c>
@@ -952,7 +1469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>1212</v>
       </c>
@@ -963,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>2423</v>
       </c>
@@ -974,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>2211</v>
       </c>
@@ -988,7 +1505,7 @@
         <v>42567</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>32542</v>
       </c>
@@ -1002,7 +1519,7 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>322</v>
       </c>
@@ -1013,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>342</v>
       </c>
@@ -1024,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>33</v>
       </c>
@@ -1035,14 +1552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E7" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1058,12 +1575,12 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:13">
+    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="6:13">
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>59</v>
       </c>
@@ -1086,7 +1603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="6:13">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>60</v>
       </c>
@@ -1106,7 +1623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="6:13">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1126,7 +1643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="6:13">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>61</v>
       </c>
@@ -1140,7 +1657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="6:13">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>61</v>
       </c>
@@ -1154,7 +1671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="6:13">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>61</v>
       </c>
@@ -1168,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="6:13">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>62</v>
       </c>
@@ -1191,7 +1708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="6:13">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>60</v>
       </c>
@@ -1214,7 +1731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="6:13">
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>60</v>
       </c>
@@ -1237,7 +1754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="6:13">
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>62</v>
       </c>
@@ -1260,7 +1777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="6:13">
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>60</v>
       </c>
@@ -1286,7 +1803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="6:13">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>61</v>
       </c>
@@ -1301,7 +1818,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="6:13">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>61</v>
       </c>
@@ -1316,7 +1833,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="6:13">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G16" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1336,7 +1853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G17" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1356,7 +1873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G18" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1379,7 +1896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G19" s="1">
         <v>42370.479166666664</v>
       </c>
@@ -1390,7 +1907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>42370.5</v>
       </c>
@@ -1401,7 +1918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>42371.520833333336</v>
       </c>
@@ -1412,7 +1929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22" s="1">
         <v>42371.541666666664</v>
@@ -1424,7 +1941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="4:13">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>60</v>
       </c>
@@ -1467,7 +1984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="4:13">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>60</v>
       </c>
@@ -1479,7 +1996,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>62</v>
       </c>
@@ -1499,7 +2016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>62</v>
       </c>
@@ -1523,4 +2040,835 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>3232</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>32342</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>33943</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>39009</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>99840</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-24.89</v>
+      </c>
+      <c r="E3">
+        <v>-52.300899999999999</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3">
+        <v>1400</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4">
+        <v>-25.39209</v>
+      </c>
+      <c r="E4">
+        <v>-51.905029999999996</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4">
+        <v>13</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10">
+        <v>2120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11">
+        <v>2121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2">
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="2">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2">
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/viagem/doc/Simulação.xlsx
+++ b/viagem/doc/Simulação.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,279 +12,15 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
     <sheet name="usuário" sheetId="4" r:id="rId4"/>
     <sheet name="cadastros e movimento" sheetId="5" r:id="rId5"/>
+    <sheet name="Demanda e viagem" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Representa a empresa, serve para criar o conceito de multiempresa no sistema, segregando as informações por este domínio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Classifica a conta (ou empresa) conforme sua atividade perante outras empresas dentro do sistema
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Atrela o usuário ao contexto de informações que ele pode visualizar dentro do sistema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Usuários com privilégio de manter as informações da conta e gerenciar usuários.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Cadastro dos estabelecimentos da empresa. Fica visível para qualquer empresa cadastrar uma viagem. Quando uma viagem é cadastrada e referencia o estabelecimento, logo a empresa dona deste estabelecimento poderá visualizar as viagens.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Representa um serviço a ser realizado sob a responsabilidade de um ou mais transportadores e sob a gestão da empresa contratante (tomador). Fazendo uma analogia, seria a solicitação de transporte.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Aqui é declarado quem está envolvido no serviço e o respectivo papel (quem é o tomador, quais transportadores). Quem estiver nesta relação poderá visualizar o embarque e todas as viagens.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Detalha os itens que serão transportados. Para situações de encomendas, distribuição de alimentos, é comum ter mais de um item e mais de uma entrega na mesma carga.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Empresa pode manter um cadastro de motoristas próprio para facilitar o cadastro das viagens; empresas que possuem motorista próprio também seria interessante utilizar.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Permite indicar a ordem das operações que o veículo deve realizar ao executar o serviço de transporte.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="183">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -526,9 +262,6 @@
     <t>Usuário da conta</t>
   </si>
   <si>
-    <t>Administrador da cota</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -683,13 +416,166 @@
   </si>
   <si>
     <t>Exemplo: as classes que possuem local como atributo, poderão referenciar um estabelecimento já cadastrado, mas manterá também as demais informações - latitude, longitude, etc..</t>
+  </si>
+  <si>
+    <t>Administrador da conta</t>
+  </si>
+  <si>
+    <t>soja</t>
+  </si>
+  <si>
+    <t>óleo</t>
+  </si>
+  <si>
+    <t>1500 tn</t>
+  </si>
+  <si>
+    <t>20 cx</t>
+  </si>
+  <si>
+    <t>Taubaté</t>
+  </si>
+  <si>
+    <t>farinha</t>
+  </si>
+  <si>
+    <t>5 fd</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>35tn</t>
+  </si>
+  <si>
+    <t>27tn</t>
+  </si>
+  <si>
+    <t>Etapa entrega</t>
+  </si>
+  <si>
+    <t>R.Claro</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ABC1010</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Veículo</t>
+  </si>
+  <si>
+    <t>Transp.</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>ADF8990</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>AWA2120</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>AWA3020</t>
+  </si>
+  <si>
+    <t>Iniciado</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>Ponto viagem</t>
+  </si>
+  <si>
+    <t>C.Mourão</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Status da viagem</t>
+  </si>
+  <si>
+    <t>pendente</t>
+  </si>
+  <si>
+    <t>iniciada</t>
+  </si>
+  <si>
+    <t>encerrada</t>
+  </si>
+  <si>
+    <t>status da etapa</t>
+  </si>
+  <si>
+    <t>concluída</t>
+  </si>
+  <si>
+    <t>Status ponto viagem</t>
+  </si>
+  <si>
+    <t>a caminho</t>
+  </si>
+  <si>
+    <t>no local</t>
+  </si>
+  <si>
+    <t>encerrado</t>
+  </si>
+  <si>
+    <t>concluído</t>
+  </si>
+  <si>
+    <t>Status da demanda</t>
+  </si>
+  <si>
+    <t>Status da entrega</t>
+  </si>
+  <si>
+    <t>abortada</t>
+  </si>
+  <si>
+    <t>veículo no local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,26 +653,79 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -805,7 +744,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -824,9 +763,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,10 +869,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,7 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1128,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1148,7 +1098,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1214,7 +1164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="E4">
         <v>1</v>
       </c>
@@ -1234,7 +1184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="E5">
         <v>1</v>
       </c>
@@ -1254,7 +1204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="E6">
         <v>1</v>
       </c>
@@ -1274,7 +1224,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="E7">
         <v>1</v>
       </c>
@@ -1300,14 +1250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1322,7 +1272,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1385,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="J6">
         <v>234231</v>
       </c>
@@ -1469,7 +1419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="J7">
         <v>1212</v>
       </c>
@@ -1480,7 +1430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="J8">
         <v>2423</v>
       </c>
@@ -1491,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="J9">
         <v>2211</v>
       </c>
@@ -1505,7 +1455,7 @@
         <v>42567</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="J10">
         <v>32542</v>
       </c>
@@ -1519,7 +1469,7 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="J11">
         <v>322</v>
       </c>
@@ -1530,7 +1480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="J12">
         <v>342</v>
       </c>
@@ -1541,7 +1491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="J13" t="s">
         <v>33</v>
       </c>
@@ -1552,14 +1502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1575,12 +1525,12 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:13">
       <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:13">
       <c r="F3" t="s">
         <v>59</v>
       </c>
@@ -1603,7 +1553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:13">
       <c r="F4" t="s">
         <v>60</v>
       </c>
@@ -1623,7 +1573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:13">
       <c r="G5" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1643,7 +1593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:13">
       <c r="F6" t="s">
         <v>61</v>
       </c>
@@ -1657,7 +1607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:13">
       <c r="F7" t="s">
         <v>61</v>
       </c>
@@ -1671,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:13">
       <c r="F8" t="s">
         <v>61</v>
       </c>
@@ -1685,7 +1635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:13">
       <c r="F9" t="s">
         <v>62</v>
       </c>
@@ -1708,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:13">
       <c r="F10" t="s">
         <v>60</v>
       </c>
@@ -1731,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:13">
       <c r="F11" t="s">
         <v>60</v>
       </c>
@@ -1754,7 +1704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:13">
       <c r="F12" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:13">
       <c r="F13" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +1753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:13">
       <c r="F14" t="s">
         <v>61</v>
       </c>
@@ -1818,7 +1768,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:13">
       <c r="F15" t="s">
         <v>61</v>
       </c>
@@ -1833,7 +1783,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:13">
       <c r="G16" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1853,7 +1803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13">
       <c r="G17" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1873,7 +1823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13">
       <c r="G18" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1896,7 +1846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13">
       <c r="G19" s="1">
         <v>42370.479166666664</v>
       </c>
@@ -1907,7 +1857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13">
       <c r="G20" s="1">
         <v>42370.5</v>
       </c>
@@ -1918,7 +1868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13">
       <c r="G21" s="1">
         <v>42371.520833333336</v>
       </c>
@@ -1929,7 +1879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13">
       <c r="D22" s="1"/>
       <c r="G22" s="1">
         <v>42371.541666666664</v>
@@ -1941,7 +1891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1964,7 +1914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13">
       <c r="F24" t="s">
         <v>60</v>
       </c>
@@ -1984,7 +1934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13">
       <c r="F25" t="s">
         <v>60</v>
       </c>
@@ -1996,7 +1946,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13">
       <c r="F26" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +1966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13">
       <c r="F27" t="s">
         <v>62</v>
       </c>
@@ -2043,14 +1993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
@@ -2061,7 +2011,7 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2022,7 @@
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="12"/>
       <c r="K3" s="12" t="s">
@@ -2080,11 +2030,11 @@
       </c>
       <c r="L3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
@@ -2092,13 +2042,13 @@
         <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>68</v>
@@ -2119,7 +2069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2127,14 +2077,14 @@
         <v>123</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
@@ -2155,7 +2105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2163,20 +2113,20 @@
         <v>3232</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
         <v>69</v>
@@ -2191,7 +2141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2199,14 +2149,14 @@
         <v>32342</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>75</v>
@@ -2227,7 +2177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2235,14 +2185,14 @@
         <v>33943</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="11"/>
       <c r="H8" t="s">
         <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
         <v>75</v>
@@ -2257,7 +2207,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2265,7 +2215,7 @@
         <v>39009</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="11"/>
       <c r="H9" t="s">
@@ -2281,7 +2231,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2289,7 +2239,7 @@
         <v>99840</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="11"/>
       <c r="K10" t="s">
@@ -2313,45 +2263,45 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" customWidth="1"/>
     <col min="15" max="15" width="10.140625" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="G1" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" s="12"/>
       <c r="J1" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="N1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -2359,7 +2309,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>68</v>
       </c>
@@ -2367,10 +2317,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>65</v>
@@ -2379,39 +2329,39 @@
         <v>10</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>65</v>
       </c>
       <c r="O2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="S2" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2426,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2441,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" t="s">
         <v>107</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>108</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>109</v>
       </c>
       <c r="R3">
         <v>1400</v>
@@ -2456,15 +2406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>-25.39209</v>
@@ -2476,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2485,19 +2435,19 @@
         <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" t="s">
         <v>110</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>111</v>
       </c>
       <c r="R4">
         <v>13</v>
@@ -2506,12 +2456,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -2526,13 +2476,13 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" t="s">
         <v>112</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>113</v>
       </c>
       <c r="R5">
         <v>14</v>
@@ -2541,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="J6">
         <v>2</v>
       </c>
@@ -2549,21 +2499,21 @@
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12"/>
       <c r="N7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
@@ -2577,36 +2527,36 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="N8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>19</v>
@@ -2621,18 +2571,18 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2641,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10">
         <v>2120</v>
@@ -2659,18 +2609,18 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2679,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11">
         <v>2121</v>
@@ -2688,7 +2638,7 @@
         <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -2697,18 +2647,18 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -2717,18 +2667,18 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>15</v>
@@ -2742,27 +2692,27 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="G14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -2771,18 +2721,18 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2794,43 +2744,43 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2">
         <v>42668</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2842,33 +2792,658 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" style="23"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="23"/>
+    <col min="16" max="16" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="B1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="H4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AB5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC5" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="P7" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="P9" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="AB10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+      <c r="V14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="AB15" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="AB16" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="28:29">
+      <c r="AB17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="28:29">
+      <c r="AB18" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/viagem/doc/Simulação.xlsx
+++ b/viagem/doc/Simulação.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="Demanda e viagem" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="186">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -569,6 +568,15 @@
   </si>
   <si>
     <t>veículo no local</t>
+  </si>
+  <si>
+    <t>Fim da operação</t>
+  </si>
+  <si>
+    <t>Operação abortada</t>
+  </si>
+  <si>
+    <t>Saída</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1494,6 +1502,36 @@
     <row r="13" spans="1:13">
       <c r="J13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>

--- a/viagem/doc/Simulação.xlsx
+++ b/viagem/doc/Simulação.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,332 @@
     <sheet name="usuário" sheetId="4" r:id="rId4"/>
     <sheet name="cadastros e movimento" sheetId="5" r:id="rId5"/>
     <sheet name="Demanda e viagem" sheetId="6" r:id="rId6"/>
+    <sheet name="Plan4" sheetId="7" r:id="rId7"/>
+    <sheet name="Programações" sheetId="8" r:id="rId8"/>
+    <sheet name="Plan6" sheetId="9" r:id="rId9"/>
+    <sheet name="Plan7" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Representa a empresa, serve para criar o conceito de multiempresa no sistema, segregando as informações por este domínio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Classifica a conta (ou empresa) conforme sua atividade perante outras empresas dentro do sistema
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Atrela o usuário ao contexto de informações que ele pode visualizar dentro do sistema</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Usuários com privilégio de manter as informações da conta e gerenciar usuários.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cadastro dos estabelecimentos da empresa. Fica visível para qualquer empresa cadastrar uma viagem. Quando uma viagem é cadastrada e referencia o estabelecimento, logo a empresa dona deste estabelecimento poderá visualizar as viagens.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Representa um serviço a ser realizado sob a responsabilidade de um ou mais transportadores e sob a gestão da empresa contratante (tomador). Fazendo uma analogia, seria a solicitação de transporte.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui é declarado quem está envolvido no serviço e o respectivo papel (quem é o tomador, quais transportadores). Quem estiver nesta relação poderá visualizar o embarque e todas as viagens.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Detalha os itens que serão transportados. Para situações de encomendas, distribuição de alimentos, é comum ter mais de um item e mais de uma entrega na mesma carga.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Empresa pode manter um cadastro de motoristas próprio para facilitar o cadastro das viagens; empresas que possuem motorista próprio também seria interessante utilizar.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Permite indicar a ordem das operações que o veículo deve realizar ao executar o serviço de transporte.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Corresponde ao total de produto a ser movimentado de uma origem para um destino</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Produto da demanda a ser transportado por um veículo em uma viagem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trajetos que será percorrido pelo veículo para que o produto chegue no seu destino final. Há situações em que produto é descarregado em um centro de distribuição e carregado novamente por outro veículo para chegar ao cliente final.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="198">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -525,65 +844,104 @@
     <t>E4</t>
   </si>
   <si>
-    <t>Status da viagem</t>
-  </si>
-  <si>
-    <t>pendente</t>
-  </si>
-  <si>
-    <t>iniciada</t>
-  </si>
-  <si>
-    <t>encerrada</t>
-  </si>
-  <si>
-    <t>status da etapa</t>
-  </si>
-  <si>
-    <t>concluída</t>
-  </si>
-  <si>
-    <t>Status ponto viagem</t>
-  </si>
-  <si>
-    <t>a caminho</t>
-  </si>
-  <si>
-    <t>no local</t>
-  </si>
-  <si>
-    <t>encerrado</t>
-  </si>
-  <si>
-    <t>concluído</t>
-  </si>
-  <si>
-    <t>Status da demanda</t>
-  </si>
-  <si>
-    <t>Status da entrega</t>
-  </si>
-  <si>
-    <t>abortada</t>
-  </si>
-  <si>
-    <t>veículo no local</t>
-  </si>
-  <si>
-    <t>Fim da operação</t>
-  </si>
-  <si>
-    <t>Operação abortada</t>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>Tn</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Et01</t>
+  </si>
+  <si>
+    <t>En01</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>V01</t>
+  </si>
+  <si>
+    <t>Unid.</t>
+  </si>
+  <si>
+    <t>Ponto Viagem</t>
+  </si>
+  <si>
+    <t>Pt01</t>
+  </si>
+  <si>
+    <t>Estabelec.</t>
+  </si>
+  <si>
+    <t>Op01</t>
+  </si>
+  <si>
+    <t>Coleta</t>
+  </si>
+  <si>
+    <t>Início de viagem</t>
+  </si>
+  <si>
+    <t>Previsão de chegada</t>
+  </si>
+  <si>
+    <t>Fim da operação (realizada ou abortada)</t>
   </si>
   <si>
     <t>Saída</t>
+  </si>
+  <si>
+    <t>Buturi</t>
+  </si>
+  <si>
+    <t>33 Tn</t>
+  </si>
+  <si>
+    <t>Araruna</t>
+  </si>
+  <si>
+    <t>Farol</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>23 Tn</t>
+  </si>
+  <si>
+    <t>Data acordada</t>
+  </si>
+  <si>
+    <t>Data Chegada</t>
+  </si>
+  <si>
+    <t>Data saída</t>
+  </si>
+  <si>
+    <t>Data chegada prevista</t>
+  </si>
+  <si>
+    <t>Data finalização</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,8 +1019,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,13 +1106,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -752,7 +1144,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -784,9 +1176,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,7 +1239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,9 +1271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,6 +1306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1086,14 +1482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1106,7 +1502,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1172,7 +1568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
@@ -1192,7 +1588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
@@ -1212,7 +1608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -1232,7 +1628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>1</v>
       </c>
@@ -1257,15 +1653,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1280,7 +1688,7 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1801,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>234231</v>
       </c>
@@ -1427,7 +1835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>1212</v>
       </c>
@@ -1438,7 +1846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>2423</v>
       </c>
@@ -1449,7 +1857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J9">
         <v>2211</v>
       </c>
@@ -1463,7 +1871,7 @@
         <v>42567</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>32542</v>
       </c>
@@ -1477,7 +1885,7 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>322</v>
       </c>
@@ -1488,7 +1896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>342</v>
       </c>
@@ -1499,39 +1907,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1540,14 +1918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1563,12 +1941,12 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:13">
+    <row r="1" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="6:13">
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>59</v>
       </c>
@@ -1591,7 +1969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="6:13">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>60</v>
       </c>
@@ -1611,7 +1989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="6:13">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1631,7 +2009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="6:13">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>61</v>
       </c>
@@ -1645,7 +2023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="6:13">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>61</v>
       </c>
@@ -1659,7 +2037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="6:13">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>61</v>
       </c>
@@ -1673,7 +2051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="6:13">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>62</v>
       </c>
@@ -1696,7 +2074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="6:13">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>60</v>
       </c>
@@ -1719,7 +2097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="6:13">
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>60</v>
       </c>
@@ -1742,7 +2120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="6:13">
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>62</v>
       </c>
@@ -1765,7 +2143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="6:13">
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>60</v>
       </c>
@@ -1791,7 +2169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="6:13">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +2184,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="6:13">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>61</v>
       </c>
@@ -1821,7 +2199,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="6:13">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G16" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1841,7 +2219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="4:13">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G17" s="1">
         <v>42370.458333333336</v>
       </c>
@@ -1861,7 +2239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:13">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G18" s="1">
         <v>42370.541666666664</v>
       </c>
@@ -1884,7 +2262,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="4:13">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G19" s="1">
         <v>42370.479166666664</v>
       </c>
@@ -1895,7 +2273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:13">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>42370.5</v>
       </c>
@@ -1906,7 +2284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:13">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>42371.520833333336</v>
       </c>
@@ -1917,7 +2295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="4:13">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="G22" s="1">
         <v>42371.541666666664</v>
@@ -1929,7 +2307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="4:13">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>62</v>
       </c>
@@ -1952,7 +2330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="4:13">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>60</v>
       </c>
@@ -1972,7 +2350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="4:13">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>60</v>
       </c>
@@ -1984,7 +2362,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="4:13">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>62</v>
       </c>
@@ -2004,7 +2382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>62</v>
       </c>
@@ -2031,14 +2409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
@@ -2049,7 +2427,7 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2450,7 @@
       </c>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
@@ -2107,7 +2485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2143,7 +2521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2179,7 +2557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -2215,7 +2593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2245,7 +2623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2269,7 +2647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2301,18 +2679,19 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -2322,7 +2701,7 @@
     <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>91</v>
       </c>
@@ -2347,7 +2726,7 @@
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>68</v>
       </c>
@@ -2394,7 +2773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2444,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -2494,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>3</v>
       </c>
@@ -2529,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>2</v>
       </c>
@@ -2540,7 +2919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +2930,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
@@ -2577,7 +2956,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2615,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2653,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2691,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +3090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2736,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>1</v>
       </c>
@@ -2782,7 +3161,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -2796,7 +3175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -2813,7 +3192,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>2</v>
       </c>
@@ -2830,7 +3209,7 @@
         <v>42668</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>2</v>
       </c>
@@ -2844,12 +3223,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -2857,18 +3236,19 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" style="23"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -2881,7 +3261,7 @@
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>119</v>
       </c>
@@ -2898,7 +3278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2981,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>161</v>
       </c>
@@ -3061,7 +3441,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3128,7 +3508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -3156,7 +3536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>162</v>
       </c>
@@ -3236,7 +3616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -3287,7 +3667,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>163</v>
       </c>
@@ -3352,7 +3732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P9" s="28" t="s">
         <v>167</v>
       </c>
@@ -3378,7 +3758,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB10" s="20" t="s">
         <v>158</v>
       </c>
@@ -3389,19 +3769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V11" t="s">
-        <v>168</v>
-      </c>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB11" s="20" t="s">
         <v>158</v>
       </c>
@@ -3412,76 +3780,703 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="B12" t="s">
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
         <v>169</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
         <v>169</v>
       </c>
-      <c r="Q12" t="s">
-        <v>169</v>
-      </c>
-      <c r="V12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="B13" t="s">
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
         <v>173</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
         <v>171</v>
       </c>
-      <c r="V13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="H14" t="s">
-        <v>181</v>
-      </c>
-      <c r="V14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="AB15" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="AB16" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="28:29">
-      <c r="AB17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="28:29">
-      <c r="AB18" s="23" t="s">
-        <v>178</v>
+      <c r="O19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42716</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42716</v>
+      </c>
+      <c r="G2" s="29">
+        <v>42716.625</v>
+      </c>
+      <c r="H2" s="29">
+        <v>42716.583333333336</v>
+      </c>
+      <c r="I2" s="29">
+        <v>42716.638888888891</v>
+      </c>
+      <c r="J2" s="29">
+        <v>42716.65625</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42716</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42717</v>
+      </c>
+      <c r="G3" s="29">
+        <v>42717.395833333336</v>
+      </c>
+      <c r="H3" s="29">
+        <v>42717.429861111108</v>
+      </c>
+      <c r="I3" s="29">
+        <v>42717.47152777778</v>
+      </c>
+      <c r="J3" s="29">
+        <v>42717.480555555558</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>123</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42717</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42717</v>
+      </c>
+      <c r="G4" s="29">
+        <v>42717.395833333336</v>
+      </c>
+      <c r="H4" s="29">
+        <v>42717.429861111108</v>
+      </c>
+      <c r="I4" s="29">
+        <v>42717.47152777778</v>
+      </c>
+      <c r="J4" s="29">
+        <v>42717.480555555558</v>
+      </c>
+      <c r="K4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>854</v>
+      </c>
+      <c r="P4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42717</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42717</v>
+      </c>
+      <c r="G5" s="29">
+        <v>42717.395833333336</v>
+      </c>
+      <c r="H5" s="29">
+        <v>42717.429861111108</v>
+      </c>
+      <c r="I5" s="29">
+        <v>42717.47152777778</v>
+      </c>
+      <c r="J5" s="29">
+        <v>42717.480555555558</v>
+      </c>
+      <c r="K5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>854</v>
+      </c>
+      <c r="P5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5">
+        <v>683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>